--- a/data/org/college/students/2024.xlsx
+++ b/data/org/college/students/2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\folder-as-datalake\data\org\college\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440448C2-2C00-45E8-AD22-47A797353E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3B6BE3-8CE8-40F2-9642-35485029DD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="375" windowWidth="11850" windowHeight="10912" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1418" yWindow="1388" windowWidth="11850" windowHeight="10072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,64 +33,64 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Albert Einstein</t>
-  </si>
-  <si>
-    <t>Stephen Hawking</t>
-  </si>
-  <si>
-    <t>Max Planck</t>
-  </si>
-  <si>
-    <t>Niels Bohr</t>
-  </si>
-  <si>
-    <t>Enrico Fermi</t>
-  </si>
-  <si>
-    <t>Galileo Galilei</t>
-  </si>
-  <si>
-    <t>Willebrod Snell</t>
-  </si>
-  <si>
-    <t>Blaise Pascal</t>
-  </si>
-  <si>
-    <t>Christiaan Huygens</t>
-  </si>
-  <si>
-    <t>Robert Hooke</t>
-  </si>
-  <si>
-    <t>Daniel Bernoulli</t>
-  </si>
-  <si>
-    <t>Benjamin Franklin</t>
-  </si>
-  <si>
-    <t>Leonard Euler</t>
-  </si>
-  <si>
-    <t>Charles Augustin de Coulomb</t>
-  </si>
-  <si>
-    <t>Joseph-Louis Lagrange</t>
-  </si>
-  <si>
-    <t>James Watt</t>
-  </si>
-  <si>
-    <t>Count Alessandro Volta</t>
-  </si>
-  <si>
-    <t>Joseph Fourier</t>
-  </si>
-  <si>
-    <t>Thomas Young</t>
-  </si>
-  <si>
-    <t>Sir Isaac Newton</t>
+    <t>Albert Hawking</t>
+  </si>
+  <si>
+    <t>Isaac Enstein</t>
+  </si>
+  <si>
+    <t>Stephen Newton</t>
+  </si>
+  <si>
+    <t>Max Bohr</t>
+  </si>
+  <si>
+    <t>Niels Planck</t>
+  </si>
+  <si>
+    <t>Enrico Gelilei</t>
+  </si>
+  <si>
+    <t>Galileo Fermi</t>
+  </si>
+  <si>
+    <t>Willebrod Pascal</t>
+  </si>
+  <si>
+    <t>Blaise Snell</t>
+  </si>
+  <si>
+    <t>Christiaan Hooke</t>
+  </si>
+  <si>
+    <t>Robert Huygens</t>
+  </si>
+  <si>
+    <t>Daniel Franklin</t>
+  </si>
+  <si>
+    <t>Benjamin Bernoulli</t>
+  </si>
+  <si>
+    <t>Leonard Coulomb</t>
+  </si>
+  <si>
+    <t>Charles Euler</t>
+  </si>
+  <si>
+    <t>Louis Watt</t>
+  </si>
+  <si>
+    <t>James Lagrange</t>
+  </si>
+  <si>
+    <t>Alessandro Fourier</t>
+  </si>
+  <si>
+    <t>Joseph Young</t>
+  </si>
+  <si>
+    <t>Thomas Volta</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
         <v>20224002</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -445,7 +445,7 @@
         <v>20224003</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -453,7 +453,7 @@
         <v>20224004</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -461,7 +461,7 @@
         <v>20224005</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -469,7 +469,7 @@
         <v>20224006</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -477,7 +477,7 @@
         <v>20224007</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -485,7 +485,7 @@
         <v>20224008</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -493,7 +493,7 @@
         <v>20224009</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -501,7 +501,7 @@
         <v>20224010</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -509,7 +509,7 @@
         <v>20224011</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -517,7 +517,7 @@
         <v>20224012</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
@@ -525,7 +525,7 @@
         <v>20224013</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -533,7 +533,7 @@
         <v>20224014</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
@@ -541,7 +541,7 @@
         <v>20224015</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -549,7 +549,7 @@
         <v>20224016</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -557,7 +557,7 @@
         <v>20224017</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -565,7 +565,7 @@
         <v>20224018</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -573,7 +573,7 @@
         <v>20224019</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -581,7 +581,7 @@
         <v>20224020</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
